--- a/data/trans_camb/P35_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P35_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-3,46</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,3</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,84</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 11,26</t>
+          <t>-16,68; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 10,49</t>
+          <t>-7,09; 13,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 2,38</t>
+          <t>-6,94; 10,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 2,56</t>
+          <t>-10,95; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 5,51</t>
+          <t>-10,95; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 5,31</t>
+          <t>-4,75; 13,08</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,54; 0,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 5,81</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-4,35; 7,82</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-20,69%</t>
+          <t>26,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-52,29%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-50,54%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>50,45%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-21,35%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>23,82%</t>
         </is>
       </c>
     </row>
@@ -735,12 +811,27 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-86,88; 279,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 361,4</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,6</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,31</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,73</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,79; 4,1</t>
+          <t>-11,4; 5,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,49; 7,64</t>
+          <t>-9,81; 8,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 10,34</t>
+          <t>-10,63; 8,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 5,2</t>
+          <t>-9,3; 5,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 4,2</t>
+          <t>-8,07; 7,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 4,26</t>
+          <t>-8,57; 7,85</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-7,92; 3,94</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-6,42; 5,93</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 5,01</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-44,5%</t>
+          <t>-36,96%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-10,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,82%</t>
+          <t>-5,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>-29,81%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,72%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,46%</t>
+          <t>-26,34%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-33,61%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-5,8%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-13,51%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 221,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-83,48; 286,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
+          <t>-100,0; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
+      <c r="G11" s="2" t="inlineStr">
         <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-76,17; 200,67</t>
-        </is>
-      </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-72,53; 169,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-76,65; 299,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-76,71; 210,66</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,66</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-2,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,68</t>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 14,08</t>
+          <t>-10,3; 14,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 7,67</t>
+          <t>-15,78; 7,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 0,58</t>
+          <t>-14,75; 9,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 1,5</t>
+          <t>-7,47; 1,75</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 5,48</t>
+          <t>-6,7; 2,93</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 3,19</t>
+          <t>-5,89; 4,27</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,5; 5,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,95; 3,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 4,68</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>39,55%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,79%</t>
+          <t>-27,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-63,08%</t>
+          <t>-18,97%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-45,38%</t>
+          <t>-52,07%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>-30,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-11,47%</t>
+          <t>-18,36%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-1,72%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-26,03%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-14,18%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,98; 258,15</t>
+          <t>-63,56; 300,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-56,84; 155,9</t>
+          <t>-83,58; 151,44</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-79,37; 172,03</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-47,84; 145,3</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-56,28; 82,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-66,77; 144,97</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-77,65; 97,84</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-73,39; 144,91</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>-5,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-10,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,12</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-0,53</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-5,02</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 7,69</t>
+          <t>-19,73; 7,45</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,65; 8,2</t>
+          <t>-16,98; 10,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,6</t>
+          <t>-25,12; 2,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,01; 4,16</t>
+          <t>-8,92; 6,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 4,39</t>
+          <t>-8,58; 6,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,92</t>
+          <t>-8,68; 7,08</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-11,26; 4,53</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-9,96; 6,88</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-12,9; 3,73</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,14%</t>
+          <t>-17,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-7,05%</t>
+          <t>-9,98%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>-33,77%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-19,82%</t>
+          <t>-12,72%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,59%</t>
+          <t>-11,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-7,51%</t>
+          <t>-6,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-16,02%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,52%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-25,37%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-43,06; 31,54</t>
+          <t>-50,66; 27,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-39,78; 32,28</t>
+          <t>-43,71; 46,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-60,94; 111,41</t>
+          <t>-63,16; 12,92</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-63,94; 102,0</t>
+          <t>-68,32; 139,93</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,26; 31,71</t>
+          <t>-65,6; 139,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,16; 37,9</t>
+          <t>-67,71; 146,51</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-49,3; 29,89</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-42,55; 44,44</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-52,68; 25,48</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-4,06</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>-0,7</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-2,17</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,7</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-6,73</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 11,92</t>
+          <t>-22,73; 11,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-12,61; 14,76</t>
+          <t>-18,11; 16,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,76; 6,03</t>
+          <t>-25,65; 7,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,06; 6,64</t>
+          <t>-10,55; 17,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,11; 6,08</t>
+          <t>-8,18; 18,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 8,58</t>
+          <t>-14,48; 9,09</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-14,72; 11,34</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-13,64; 12,96</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-19,2; 5,69</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-4,09%</t>
+          <t>-11,32%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>-1,96%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-18,23%</t>
+          <t>21,55%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-7,1%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>-23,73%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,41%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>5,01%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-26,43%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-38,31; 44,47</t>
+          <t>-49,77; 44,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 54,05</t>
+          <t>-39,8; 64,84</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-61,79; 96,0</t>
+          <t>-56,95; 29,1</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-63,51; 90,87</t>
+          <t>-62,83; 320,85</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-38,96; 29,2</t>
+          <t>-53,63; 361,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-32,86; 44,92</t>
+          <t>-79,03; 187,66</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-46,61; 60,22</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-41,68; 70,71</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-57,51; 32,45</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,1</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
+          <t>7,13</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
           <t>-0,67</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,96</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-1,66</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-2,18</t>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 12,77</t>
+          <t>-22,87; 16,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 12,52</t>
+          <t>-21,28; 19,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-7,17; 5,39</t>
+          <t>-14,92; 26,56</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 5,21</t>
+          <t>-14,13; 10,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 5,49</t>
+          <t>-15,73; 7,54</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-9,66; 5,24</t>
+          <t>-11,92; 10,97</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-12,32; 11,87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-13,55; 9,71</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-9,46; 14,84</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>-4,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>-5,9%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-10,21%</t>
+          <t>-30,7%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>-2,16%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-3,81%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-8,79%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-46,37; 62,66</t>
+          <t>-61,03; 112,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-44,51; 60,01</t>
+          <t>-60,31; 129,53</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-72,19; 168,27</t>
+          <t>-41,75; 168,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-70,79; 160,78</t>
+          <t>-82,0; 207,39</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 47,98</t>
+          <t>-87,32; 182,34</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-51,34; 40,19</t>
+          <t>-75,67; 250,66</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-54,65; 116,72</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-58,37; 89,87</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-41,93; 145,87</t>
         </is>
       </c>
     </row>
@@ -1537,17 +1928,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-4,01</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1557,12 +1948,27 @@
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-1,8</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,94; 3,89</t>
+          <t>-9,94; 3,43</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-6,9; 3,02</t>
+          <t>-9,5; 4,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 1,65</t>
+          <t>-10,78; 2,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 1,13</t>
+          <t>-4,41; 2,08</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 1,82</t>
+          <t>-4,35; 2,09</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 1,78</t>
+          <t>-3,74; 3,53</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-5,17; 1,66</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 2,38</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-5,38; 2,09</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-5,81%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-9,52%</t>
+          <t>-12,32%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,0%</t>
+          <t>-20,11%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-7,58%</t>
+          <t>-12,91%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-10,19%</t>
+          <t>-4,8%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>-13,62%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-10,04%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-14,09%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 24,28</t>
+          <t>-40,52; 20,64</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-30,94; 19,43</t>
+          <t>-39,06; 27,38</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-45,86; 40,85</t>
+          <t>-44,68; 15,93</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-48,41; 26,24</t>
+          <t>-53,17; 44,67</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-25,43; 17,91</t>
+          <t>-50,91; 43,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-28,32; 17,54</t>
+          <t>-46,21; 75,92</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-34,94; 14,35</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-33,26; 21,65</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-35,87; 19,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
